--- a/Data/collapsed database manual cases/tabasco_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/tabasco_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/tabasco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{C9B884D3-2698-F24E-AFB5-615B5729546C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DFF4855-B330-C44A-B6BF-0715E828C194}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614B08E-0033-5F43-A31F-FD74FC3521CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="218">
   <si>
     <t>uniqueid</t>
   </si>
@@ -650,6 +650,33 @@
   </si>
   <si>
     <t>https://expansion.mx/nacional/2018/01/15/la-suprema-corte-destituye-a-cabildo-de-paraiso-tabasco</t>
+  </si>
+  <si>
+    <t>PT_MORENA</t>
+  </si>
+  <si>
+    <t>ARMANDO BELTRAN TENORIO</t>
+  </si>
+  <si>
+    <t>NYDIA NARANJO COBIAN</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC</t>
+  </si>
+  <si>
+    <t>TEY MOLLINEDO CANO</t>
+  </si>
+  <si>
+    <t>https://www.xevt.com/politica/nombra-morena-a-armando-beltran-nuevo-coordinador-estatal-de-las-estructuras/177934</t>
+  </si>
+  <si>
+    <t>https://www.tabascohoy.com/fallece-nydia-naranjo-consejera-de-morena-y-exalcaldesa-de-cunduacan/</t>
+  </si>
+  <si>
+    <t>https://indicadorpolitico.com.mx/?p=14043</t>
+  </si>
+  <si>
+    <t>https://sil.gobernacion.gob.mx/Librerias/pp_PerfilLegislador.php?Referencia=9228622</t>
   </si>
 </sst>
 </file>
@@ -1003,10 +1030,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S120"/>
+  <dimension ref="A1:S125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+      <selection activeCell="H128" sqref="H128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6024,6 +6051,103 @@
         <v>39</v>
       </c>
     </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>27002</v>
+      </c>
+      <c r="B121">
+        <v>2021</v>
+      </c>
+      <c r="E121" t="s">
+        <v>209</v>
+      </c>
+      <c r="F121" t="s">
+        <v>210</v>
+      </c>
+      <c r="H121" t="s">
+        <v>83</v>
+      </c>
+      <c r="I121" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>27004</v>
+      </c>
+      <c r="B122">
+        <v>2021</v>
+      </c>
+      <c r="E122" t="s">
+        <v>209</v>
+      </c>
+      <c r="F122" t="s">
+        <v>70</v>
+      </c>
+      <c r="H122" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>27006</v>
+      </c>
+      <c r="B123">
+        <v>2021</v>
+      </c>
+      <c r="E123" t="s">
+        <v>209</v>
+      </c>
+      <c r="F123" t="s">
+        <v>211</v>
+      </c>
+      <c r="H123" t="s">
+        <v>83</v>
+      </c>
+      <c r="I123" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>27011</v>
+      </c>
+      <c r="B124">
+        <v>2021</v>
+      </c>
+      <c r="E124" t="s">
+        <v>212</v>
+      </c>
+      <c r="F124" t="s">
+        <v>136</v>
+      </c>
+      <c r="H124" t="s">
+        <v>26</v>
+      </c>
+      <c r="I124" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>27016</v>
+      </c>
+      <c r="B125">
+        <v>2021</v>
+      </c>
+      <c r="E125" t="s">
+        <v>209</v>
+      </c>
+      <c r="F125" t="s">
+        <v>213</v>
+      </c>
+      <c r="H125" t="s">
+        <v>83</v>
+      </c>
+      <c r="I125" t="s">
+        <v>217</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S120" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
